--- a/Example/bin/Debug/Test2.xlsx
+++ b/Example/bin/Debug/Test2.xlsx
@@ -73,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,13 +81,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -406,7 +422,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -417,7 +433,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -428,7 +444,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -439,7 +455,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -450,7 +466,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -461,7 +477,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -472,7 +488,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -483,7 +499,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1"/>
@@ -492,7 +508,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -503,7 +519,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">

--- a/Example/bin/Debug/Test2.xlsx
+++ b/Example/bin/Debug/Test2.xlsx
@@ -73,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -81,29 +81,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -422,7 +406,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -433,7 +417,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -444,7 +428,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -455,7 +439,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -466,7 +450,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -477,7 +461,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -488,7 +472,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -499,7 +483,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1"/>
@@ -508,7 +492,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -519,7 +503,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
